--- a/plan/Backlog2017.xlsx
+++ b/plan/Backlog2017.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>Id</t>
   </si>
@@ -29,9 +29,6 @@
     <t>Rozmiar</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Chcę</t>
   </si>
   <si>
@@ -240,6 +237,12 @@
   </si>
   <si>
     <t>Mieć piękny trawnik wygodnie</t>
+  </si>
+  <si>
+    <t>Zrobione</t>
+  </si>
+  <si>
+    <t>W trakcie</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F32" activeCellId="1" sqref="F32 F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -679,19 +682,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -699,23 +702,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="I2" s="5"/>
     </row>
@@ -724,21 +727,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -747,21 +750,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="I4" s="5"/>
     </row>
@@ -770,21 +773,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -793,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
@@ -819,21 +822,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="I7" s="8"/>
     </row>
@@ -842,21 +845,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -865,21 +868,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="I9" s="8"/>
     </row>
@@ -888,21 +891,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -911,21 +914,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="I11" s="8"/>
     </row>
@@ -934,21 +937,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -957,18 +960,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -976,18 +979,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -995,18 +998,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1014,23 +1017,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -1039,23 +1042,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -1064,23 +1067,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -1089,23 +1092,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -1114,19 +1117,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -1135,19 +1138,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="I21" s="8"/>
     </row>
@@ -1156,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1165,7 +1168,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1173,26 +1176,26 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I23" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1200,7 +1203,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1209,7 +1212,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1217,7 +1220,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1226,7 +1229,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1234,7 +1237,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1243,7 +1246,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1277,23 +1280,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="I29" s="8"/>
     </row>
@@ -1302,23 +1305,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="I30" s="5"/>
     </row>
